--- a/Input/008_Input_Convert_datatable_to_jsonstring.xlsx
+++ b/Input/008_Input_Convert_datatable_to_jsonstring.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rathina.krithika\Desktop\Uipath Repo\JSON_Snippets_Tasks\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABD67D3-0AA6-4A43-A93B-DA56CA84BCB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A7F8A1-E81C-4B83-B13B-71C1F0B4A8F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="BMP1" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -401,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182743EB-AC0B-4FBF-86D6-551A05440E74}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,4 +564,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67BB386D-444F-4398-A3F0-3DED635F1799}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Input/008_Input_Convert_datatable_to_jsonstring.xlsx
+++ b/Input/008_Input_Convert_datatable_to_jsonstring.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rathina.krithika\Desktop\Uipath Repo\JSON_Snippets_Tasks\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A7F8A1-E81C-4B83-B13B-71C1F0B4A8F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54362314-E656-4C2A-814A-68318E0E3B17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
-    <sheet name="BMP1" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -402,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182743EB-AC0B-4FBF-86D6-551A05440E74}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,59 +563,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67BB386D-444F-4398-A3F0-3DED635F1799}">
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>